--- a/biology/Botanique/Tango_(rose)/Tango_(rose).xlsx
+++ b/biology/Botanique/Tango_(rose)/Tango_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Tango' est un cultivar de rosier obtenu en 1978 par le rosiériste français Delbard. Il est issu d'un croisement d'un semis 'Belle Rouge' x  ['Gloire de Rome' x 'Gratitude'] et du pollen ['Dr Schweitzer' x 'Tropicana'] x ['Ena Harkness' x 'Québec'][1].
+'Tango' est un cultivar de rosier obtenu en 1978 par le rosiériste français Delbard. Il est issu d'un croisement d'un semis 'Belle Rouge' x  ['Gloire de Rome' x 'Gratitude'] et du pollen ['Dr Schweitzer' x 'Tropicana'] x ['Ena Harkness' x 'Québec'].
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un buisson de taille moyenne et au feuillage mat qui présente de grandes fleurs au cœur turbiné de couleur orange pâle saumoné. Elles sont doubles (26-40 pétales) et leur floraison est remontante[1]. La couleur des fleurs pâlit au fur et à mesure de la floraison.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un buisson de taille moyenne et au feuillage mat qui présente de grandes fleurs au cœur turbiné de couleur orange pâle saumoné. Elles sont doubles (26-40 pétales) et leur floraison est remontante. La couleur des fleurs pâlit au fur et à mesure de la floraison.
 Sa zone de rusticité est de 6b à 9b ; il résiste donc aux hivers froids. Il est parfait pour la fleur à couper et il est fort prisé pour son coloris délicat qui illumine les massifs. Il a besoin d'être taillé avant le début du printemps.
 </t>
         </is>
